--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2622"/>
+  <dimension ref="A1:G2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68919,10 +68919,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -68952,10 +68950,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2520">
@@ -68985,10 +68981,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G2520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2521">
@@ -69018,10 +69012,8 @@
           <t>1908.0K</t>
         </is>
       </c>
-      <c r="G2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -69051,10 +69043,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G2522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2523">
@@ -69080,10 +69070,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2524">
@@ -69109,10 +69097,8 @@
           <t>147.8</t>
         </is>
       </c>
-      <c r="G2524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2525">
@@ -69138,10 +69124,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -69167,10 +69151,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G2526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2527">
@@ -69200,10 +69182,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G2527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2528">
@@ -69229,10 +69209,8 @@
         </is>
       </c>
       <c r="F2528" t="inlineStr"/>
-      <c r="G2528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2529">
@@ -69254,10 +69232,8 @@
       </c>
       <c r="E2529" t="inlineStr"/>
       <c r="F2529" t="inlineStr"/>
-      <c r="G2529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2530">
@@ -69279,10 +69255,8 @@
       </c>
       <c r="E2530" t="inlineStr"/>
       <c r="F2530" t="inlineStr"/>
-      <c r="G2530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2531">
@@ -69304,10 +69278,8 @@
       </c>
       <c r="E2531" t="inlineStr"/>
       <c r="F2531" t="inlineStr"/>
-      <c r="G2531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2532">
@@ -69329,10 +69301,8 @@
       </c>
       <c r="E2532" t="inlineStr"/>
       <c r="F2532" t="inlineStr"/>
-      <c r="G2532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -69350,10 +69320,8 @@
       <c r="D2533" t="inlineStr"/>
       <c r="E2533" t="inlineStr"/>
       <c r="F2533" t="inlineStr"/>
-      <c r="G2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -69375,40 +69343,50 @@
       </c>
       <c r="E2534" t="inlineStr"/>
       <c r="F2534" t="inlineStr"/>
-      <c r="G2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
       <c r="A2535" t="inlineStr">
         <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2535" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUN/13</t>
+        </is>
+      </c>
       <c r="C2535" t="inlineStr"/>
-      <c r="D2535" t="inlineStr"/>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>-0.403M</t>
+        </is>
+      </c>
       <c r="E2535" t="inlineStr"/>
       <c r="F2535" t="inlineStr"/>
-      <c r="G2535" t="inlineStr"/>
+      <c r="G2535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2536">
       <c r="A2536" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2536" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/11</t>
+          <t>EIA Distillate Fuel Production ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2536" t="inlineStr"/>
       <c r="D2536" t="inlineStr">
         <is>
-          <t>$6.67T</t>
+          <t>-0.097M</t>
         </is>
       </c>
       <c r="E2536" t="inlineStr"/>
@@ -69422,59 +69400,47 @@
     <row r="2537">
       <c r="A2537" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
+          <t>EIA Distillate Stocks ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2537" t="inlineStr"/>
       <c r="D2537" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2537" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="F2537" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
+          <t>1.246M</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr"/>
+      <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2538">
       <c r="A2538" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
+          <t>EIA Gasoline Production ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2538" t="inlineStr"/>
       <c r="D2538" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.681M</t>
         </is>
       </c>
       <c r="E2538" t="inlineStr"/>
-      <c r="F2538" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="F2538" t="inlineStr"/>
       <c r="G2538" t="inlineStr">
         <is>
           <t>3</t>
@@ -69484,26 +69450,22 @@
     <row r="2539">
       <c r="A2539" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
+          <t>EIA Heating Oil Stocks ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2539" t="inlineStr"/>
       <c r="D2539" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>0.487M</t>
         </is>
       </c>
       <c r="E2539" t="inlineStr"/>
-      <c r="F2539" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F2539" t="inlineStr"/>
       <c r="G2539" t="inlineStr">
         <is>
           <t>3</t>
@@ -69513,26 +69475,22 @@
     <row r="2540">
       <c r="A2540" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2540" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUN</t>
+          <t>EIA Refinery Crude Runs ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2540" t="inlineStr"/>
       <c r="D2540" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>0.228M</t>
         </is>
       </c>
       <c r="E2540" t="inlineStr"/>
-      <c r="F2540" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="F2540" t="inlineStr"/>
       <c r="G2540" t="inlineStr">
         <is>
           <t>3</t>
@@ -69542,26 +69500,22 @@
     <row r="2541">
       <c r="A2541" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2541" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2541" t="inlineStr"/>
       <c r="D2541" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E2541" t="inlineStr"/>
-      <c r="F2541" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
+      <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr">
         <is>
           <t>3</t>
@@ -69571,20 +69525,16 @@
     <row r="2542">
       <c r="A2542" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2542" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2542" t="inlineStr"/>
-      <c r="D2542" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
+      <c r="D2542" t="inlineStr"/>
       <c r="E2542" t="inlineStr"/>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr">
@@ -69596,20 +69546,16 @@
     <row r="2543">
       <c r="A2543" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2543" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2543" t="inlineStr"/>
-      <c r="D2543" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
+      <c r="D2543" t="inlineStr"/>
       <c r="E2543" t="inlineStr"/>
       <c r="F2543" t="inlineStr"/>
       <c r="G2543" t="inlineStr">
@@ -69621,121 +69567,137 @@
     <row r="2544">
       <c r="A2544" t="inlineStr">
         <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2544" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUN/19</t>
+        </is>
+      </c>
       <c r="C2544" t="inlineStr"/>
       <c r="D2544" t="inlineStr"/>
       <c r="E2544" t="inlineStr"/>
       <c r="F2544" t="inlineStr"/>
-      <c r="G2544" t="inlineStr"/>
+      <c r="G2544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2545">
       <c r="A2545" t="inlineStr">
         <is>
-          <t>Monday June 16 2025</t>
-        </is>
-      </c>
-      <c r="B2545" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJUN/19</t>
+        </is>
+      </c>
       <c r="C2545" t="inlineStr"/>
       <c r="D2545" t="inlineStr"/>
       <c r="E2545" t="inlineStr"/>
       <c r="F2545" t="inlineStr"/>
-      <c r="G2545" t="inlineStr"/>
+      <c r="G2545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2546">
       <c r="A2546" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2546" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/13</t>
         </is>
       </c>
       <c r="C2546" t="inlineStr"/>
-      <c r="D2546" t="inlineStr">
-        <is>
-          <t>-9.2</t>
-        </is>
-      </c>
+      <c r="D2546" t="inlineStr"/>
       <c r="E2546" t="inlineStr"/>
-      <c r="F2546" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
+      <c r="F2546" t="inlineStr"/>
       <c r="G2546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2547">
       <c r="A2547" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2547" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C2547" t="inlineStr"/>
       <c r="D2547" t="inlineStr">
         <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2547" t="inlineStr"/>
-      <c r="F2547" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F2547" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2547" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2548">
       <c r="A2548" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2548" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>FOMC Economic Projections</t>
         </is>
       </c>
       <c r="C2548" t="inlineStr"/>
-      <c r="D2548" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
+      <c r="D2548" t="inlineStr"/>
       <c r="E2548" t="inlineStr"/>
       <c r="F2548" t="inlineStr"/>
       <c r="G2548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2549">
       <c r="A2549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2549" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Interest Rate Projection - 1st Yr</t>
         </is>
       </c>
       <c r="C2549" t="inlineStr"/>
-      <c r="D2549" t="inlineStr"/>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E2549" t="inlineStr"/>
       <c r="F2549" t="inlineStr"/>
       <c r="G2549" t="inlineStr">
@@ -69747,18 +69709,18 @@
     <row r="2550">
       <c r="A2550" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2550" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Interest Rate Projection - 2nd Yr</t>
         </is>
       </c>
       <c r="C2550" t="inlineStr"/>
       <c r="D2550" t="inlineStr">
         <is>
-          <t>5.047%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E2550" t="inlineStr"/>
@@ -69772,155 +69734,123 @@
     <row r="2551">
       <c r="A2551" t="inlineStr">
         <is>
-          <t>Tuesday June 17 2025</t>
-        </is>
-      </c>
-      <c r="B2551" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - Current</t>
+        </is>
+      </c>
       <c r="C2551" t="inlineStr"/>
-      <c r="D2551" t="inlineStr"/>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E2551" t="inlineStr"/>
       <c r="F2551" t="inlineStr"/>
-      <c r="G2551" t="inlineStr"/>
+      <c r="G2551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2552">
       <c r="A2552" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAY</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C2552" t="inlineStr"/>
       <c r="D2552" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E2552" t="inlineStr"/>
-      <c r="F2552" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2552" t="inlineStr"/>
       <c r="G2552" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2553">
-      <c r="A2553" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A2553" t="inlineStr"/>
       <c r="B2553" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAY</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C2553" t="inlineStr"/>
-      <c r="D2553" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2553" t="inlineStr"/>
       <c r="E2553" t="inlineStr"/>
-      <c r="F2553" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F2553" t="inlineStr"/>
       <c r="G2553" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2554" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAY</t>
-        </is>
-      </c>
+          <t>Thursday June 19 2025</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr"/>
       <c r="C2554" t="inlineStr"/>
-      <c r="D2554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2554" t="inlineStr"/>
       <c r="E2554" t="inlineStr"/>
-      <c r="F2554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2554" t="inlineStr"/>
+      <c r="G2554" t="inlineStr"/>
     </row>
     <row r="2555">
       <c r="A2555" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAY</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C2555" t="inlineStr"/>
-      <c r="D2555" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D2555" t="inlineStr"/>
       <c r="E2555" t="inlineStr"/>
-      <c r="F2555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2555" t="inlineStr"/>
       <c r="G2555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2556" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAY</t>
+          <t>Net Long-term TIC FlowsAPR</t>
         </is>
       </c>
       <c r="C2556" t="inlineStr"/>
       <c r="D2556" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$161.8B</t>
         </is>
       </c>
       <c r="E2556" t="inlineStr"/>
-      <c r="F2556" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F2556" t="inlineStr"/>
       <c r="G2556" t="inlineStr">
         <is>
           <t>2</t>
@@ -69930,26 +69860,22 @@
     <row r="2557">
       <c r="A2557" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2557" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAY</t>
+          <t>Foreign Bond InvestmentAPR</t>
         </is>
       </c>
       <c r="C2557" t="inlineStr"/>
       <c r="D2557" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$123.3B</t>
         </is>
       </c>
       <c r="E2557" t="inlineStr"/>
-      <c r="F2557" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="F2557" t="inlineStr"/>
       <c r="G2557" t="inlineStr">
         <is>
           <t>3</t>
@@ -69959,26 +69885,22 @@
     <row r="2558">
       <c r="A2558" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAY</t>
+          <t>Overall Net Capital FlowsAPR</t>
         </is>
       </c>
       <c r="C2558" t="inlineStr"/>
       <c r="D2558" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$254.3B</t>
         </is>
       </c>
       <c r="E2558" t="inlineStr"/>
-      <c r="F2558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2558" t="inlineStr"/>
       <c r="G2558" t="inlineStr">
         <is>
           <t>3</t>
@@ -69993,24 +69915,16 @@
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAY</t>
+          <t>Initial Jobless ClaimsJUN/14</t>
         </is>
       </c>
       <c r="C2559" t="inlineStr"/>
-      <c r="D2559" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2559" t="inlineStr"/>
       <c r="E2559" t="inlineStr"/>
-      <c r="F2559" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2559" t="inlineStr"/>
       <c r="G2559" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -70022,21 +69936,13 @@
       </c>
       <c r="B2560" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAY</t>
+          <t>Continuing Jobless ClaimsJUN/07</t>
         </is>
       </c>
       <c r="C2560" t="inlineStr"/>
-      <c r="D2560" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D2560" t="inlineStr"/>
       <c r="E2560" t="inlineStr"/>
-      <c r="F2560" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="F2560" t="inlineStr"/>
       <c r="G2560" t="inlineStr">
         <is>
           <t>3</t>
@@ -70046,20 +69952,16 @@
     <row r="2561">
       <c r="A2561" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2561" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/14</t>
+          <t>Jobless Claims 4-week AverageJUN/14</t>
         </is>
       </c>
       <c r="C2561" t="inlineStr"/>
-      <c r="D2561" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="D2561" t="inlineStr"/>
       <c r="E2561" t="inlineStr"/>
       <c r="F2561" t="inlineStr"/>
       <c r="G2561" t="inlineStr">
@@ -70071,55 +69973,31 @@
     <row r="2562">
       <c r="A2562" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2562" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAY</t>
-        </is>
-      </c>
+          <t>Friday June 20 2025</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr"/>
       <c r="C2562" t="inlineStr"/>
-      <c r="D2562" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D2562" t="inlineStr"/>
       <c r="E2562" t="inlineStr"/>
-      <c r="F2562" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2562" t="inlineStr"/>
+      <c r="G2562" t="inlineStr"/>
     </row>
     <row r="2563">
       <c r="A2563" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2563" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAY</t>
+          <t>Fed Balance SheetJUN/18</t>
         </is>
       </c>
       <c r="C2563" t="inlineStr"/>
-      <c r="D2563" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="D2563" t="inlineStr"/>
       <c r="E2563" t="inlineStr"/>
-      <c r="F2563" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F2563" t="inlineStr"/>
       <c r="G2563" t="inlineStr">
         <is>
           <t>3</t>
@@ -70129,55 +70007,51 @@
     <row r="2564">
       <c r="A2564" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2564" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAY</t>
+          <t>Philadelphia Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C2564" t="inlineStr"/>
       <c r="D2564" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E2564" t="inlineStr"/>
       <c r="F2564" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2564" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAY</t>
+          <t>Philly Fed Business ConditionsJUN</t>
         </is>
       </c>
       <c r="C2565" t="inlineStr"/>
       <c r="D2565" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E2565" t="inlineStr"/>
-      <c r="F2565" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr">
         <is>
           <t>3</t>
@@ -70187,26 +70061,22 @@
     <row r="2566">
       <c r="A2566" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAY</t>
+          <t>Philly Fed CAPEX IndexJUN</t>
         </is>
       </c>
       <c r="C2566" t="inlineStr"/>
       <c r="D2566" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="E2566" t="inlineStr"/>
-      <c r="F2566" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr">
         <is>
           <t>3</t>
@@ -70216,88 +70086,72 @@
     <row r="2567">
       <c r="A2567" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2567" t="inlineStr">
         <is>
-          <t>Business Inventories MoMAPR</t>
+          <t>Philly Fed EmploymentJUN</t>
         </is>
       </c>
       <c r="C2567" t="inlineStr"/>
       <c r="D2567" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="E2567" t="inlineStr"/>
-      <c r="F2567" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2568" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJUN</t>
+          <t>Philly Fed New OrdersJUN</t>
         </is>
       </c>
       <c r="C2568" t="inlineStr"/>
       <c r="D2568" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E2568" t="inlineStr"/>
-      <c r="F2568" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
+      <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2569" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMAPR</t>
+          <t>Philly Fed Prices PaidJUN</t>
         </is>
       </c>
       <c r="C2569" t="inlineStr"/>
       <c r="D2569" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2569" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2569" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>59.80</t>
+        </is>
+      </c>
+      <c r="E2569" t="inlineStr"/>
+      <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr">
         <is>
           <t>3</t>
@@ -70307,22 +70161,26 @@
     <row r="2570">
       <c r="A2570" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2570" t="inlineStr">
         <is>
-          <t>5-Year TIPS Auction</t>
+          <t>CB Leading Index MoMMAY</t>
         </is>
       </c>
       <c r="C2570" t="inlineStr"/>
       <c r="D2570" t="inlineStr">
         <is>
-          <t>1.702%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E2570" t="inlineStr"/>
-      <c r="F2570" t="inlineStr"/>
+      <c r="F2570" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="G2570" t="inlineStr">
         <is>
           <t>3</t>
@@ -70332,1234 +70190,40 @@
     <row r="2571">
       <c r="A2571" t="inlineStr">
         <is>
-          <t>Wednesday June 18 2025</t>
-        </is>
-      </c>
-      <c r="B2571" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJUN/20</t>
+        </is>
+      </c>
       <c r="C2571" t="inlineStr"/>
       <c r="D2571" t="inlineStr"/>
       <c r="E2571" t="inlineStr"/>
       <c r="F2571" t="inlineStr"/>
-      <c r="G2571" t="inlineStr"/>
+      <c r="G2571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2572">
       <c r="A2572" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUN/13</t>
+          <t>Baker Hughes Total Rigs CountJUN/20</t>
         </is>
       </c>
       <c r="C2572" t="inlineStr"/>
-      <c r="D2572" t="inlineStr">
-        <is>
-          <t>-0.370M</t>
-        </is>
-      </c>
+      <c r="D2572" t="inlineStr"/>
       <c r="E2572" t="inlineStr"/>
       <c r="F2572" t="inlineStr"/>
       <c r="G2572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2573">
-      <c r="A2573" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2573" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/13</t>
-        </is>
-      </c>
-      <c r="C2573" t="inlineStr"/>
-      <c r="D2573" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E2573" t="inlineStr"/>
-      <c r="F2573" t="inlineStr"/>
-      <c r="G2573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2574">
-      <c r="A2574" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2574" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/13</t>
-        </is>
-      </c>
-      <c r="C2574" t="inlineStr"/>
-      <c r="D2574" t="inlineStr">
-        <is>
-          <t>12.5%</t>
-        </is>
-      </c>
-      <c r="E2574" t="inlineStr"/>
-      <c r="F2574" t="inlineStr"/>
-      <c r="G2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2575">
-      <c r="A2575" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2575" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C2575" t="inlineStr"/>
-      <c r="D2575" t="inlineStr">
-        <is>
-          <t>254.6</t>
-        </is>
-      </c>
-      <c r="E2575" t="inlineStr"/>
-      <c r="F2575" t="inlineStr"/>
-      <c r="G2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2576">
-      <c r="A2576" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C2576" t="inlineStr"/>
-      <c r="D2576" t="inlineStr">
-        <is>
-          <t>707.4</t>
-        </is>
-      </c>
-      <c r="E2576" t="inlineStr"/>
-      <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2577">
-      <c r="A2577" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2577" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/13</t>
-        </is>
-      </c>
-      <c r="C2577" t="inlineStr"/>
-      <c r="D2577" t="inlineStr">
-        <is>
-          <t>170.9</t>
-        </is>
-      </c>
-      <c r="E2577" t="inlineStr"/>
-      <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2578">
-      <c r="A2578" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2578" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2578" t="inlineStr"/>
-      <c r="D2578" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E2578" t="inlineStr"/>
-      <c r="F2578" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G2578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2579">
-      <c r="A2579" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2579" t="inlineStr">
-        <is>
-          <t>Housing StartsMAY</t>
-        </is>
-      </c>
-      <c r="C2579" t="inlineStr"/>
-      <c r="D2579" t="inlineStr">
-        <is>
-          <t>1.361M</t>
-        </is>
-      </c>
-      <c r="E2579" t="inlineStr"/>
-      <c r="F2579" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G2579" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2580">
-      <c r="A2580" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2580" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2580" t="inlineStr"/>
-      <c r="D2580" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E2580" t="inlineStr"/>
-      <c r="F2580" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2581">
-      <c r="A2581" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2581" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2581" t="inlineStr"/>
-      <c r="D2581" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="E2581" t="inlineStr"/>
-      <c r="F2581" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2582">
-      <c r="A2582" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2582" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2582" t="inlineStr"/>
-      <c r="D2582" t="inlineStr">
-        <is>
-          <t>-3.644M</t>
-        </is>
-      </c>
-      <c r="E2582" t="inlineStr"/>
-      <c r="F2582" t="inlineStr"/>
-      <c r="G2582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2583">
-      <c r="A2583" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2583" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2583" t="inlineStr"/>
-      <c r="D2583" t="inlineStr">
-        <is>
-          <t>1.504M</t>
-        </is>
-      </c>
-      <c r="E2583" t="inlineStr"/>
-      <c r="F2583" t="inlineStr"/>
-      <c r="G2583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2584">
-      <c r="A2584" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2584" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2584" t="inlineStr"/>
-      <c r="D2584" t="inlineStr">
-        <is>
-          <t>0.451M</t>
-        </is>
-      </c>
-      <c r="E2584" t="inlineStr"/>
-      <c r="F2584" t="inlineStr"/>
-      <c r="G2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2585">
-      <c r="A2585" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2585" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2585" t="inlineStr"/>
-      <c r="D2585" t="inlineStr">
-        <is>
-          <t>-0.403M</t>
-        </is>
-      </c>
-      <c r="E2585" t="inlineStr"/>
-      <c r="F2585" t="inlineStr"/>
-      <c r="G2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2586">
-      <c r="A2586" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2586" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2586" t="inlineStr"/>
-      <c r="D2586" t="inlineStr">
-        <is>
-          <t>-0.097M</t>
-        </is>
-      </c>
-      <c r="E2586" t="inlineStr"/>
-      <c r="F2586" t="inlineStr"/>
-      <c r="G2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2587">
-      <c r="A2587" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2587" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2587" t="inlineStr"/>
-      <c r="D2587" t="inlineStr">
-        <is>
-          <t>1.246M</t>
-        </is>
-      </c>
-      <c r="E2587" t="inlineStr"/>
-      <c r="F2587" t="inlineStr"/>
-      <c r="G2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2588">
-      <c r="A2588" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2588" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2588" t="inlineStr"/>
-      <c r="D2588" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E2588" t="inlineStr"/>
-      <c r="F2588" t="inlineStr"/>
-      <c r="G2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2589">
-      <c r="A2589" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2589" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2589" t="inlineStr"/>
-      <c r="D2589" t="inlineStr">
-        <is>
-          <t>0.487M</t>
-        </is>
-      </c>
-      <c r="E2589" t="inlineStr"/>
-      <c r="F2589" t="inlineStr"/>
-      <c r="G2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2590">
-      <c r="A2590" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2590" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2590" t="inlineStr"/>
-      <c r="D2590" t="inlineStr">
-        <is>
-          <t>0.228M</t>
-        </is>
-      </c>
-      <c r="E2590" t="inlineStr"/>
-      <c r="F2590" t="inlineStr"/>
-      <c r="G2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2591">
-      <c r="A2591" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2591" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2591" t="inlineStr"/>
-      <c r="D2591" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E2591" t="inlineStr"/>
-      <c r="F2591" t="inlineStr"/>
-      <c r="G2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2592">
-      <c r="A2592" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2592" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2592" t="inlineStr"/>
-      <c r="D2592" t="inlineStr"/>
-      <c r="E2592" t="inlineStr"/>
-      <c r="F2592" t="inlineStr"/>
-      <c r="G2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2593">
-      <c r="A2593" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2593" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2593" t="inlineStr"/>
-      <c r="D2593" t="inlineStr"/>
-      <c r="E2593" t="inlineStr"/>
-      <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2594">
-      <c r="A2594" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2594" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/19</t>
-        </is>
-      </c>
-      <c r="C2594" t="inlineStr"/>
-      <c r="D2594" t="inlineStr"/>
-      <c r="E2594" t="inlineStr"/>
-      <c r="F2594" t="inlineStr"/>
-      <c r="G2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2595">
-      <c r="A2595" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2595" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/19</t>
-        </is>
-      </c>
-      <c r="C2595" t="inlineStr"/>
-      <c r="D2595" t="inlineStr"/>
-      <c r="E2595" t="inlineStr"/>
-      <c r="F2595" t="inlineStr"/>
-      <c r="G2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2596">
-      <c r="A2596" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2596" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/13</t>
-        </is>
-      </c>
-      <c r="C2596" t="inlineStr"/>
-      <c r="D2596" t="inlineStr"/>
-      <c r="E2596" t="inlineStr"/>
-      <c r="F2596" t="inlineStr"/>
-      <c r="G2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2597">
-      <c r="A2597" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2597" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C2597" t="inlineStr"/>
-      <c r="D2597" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E2597" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2597" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2598">
-      <c r="A2598" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2598" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C2598" t="inlineStr"/>
-      <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr"/>
-      <c r="F2598" t="inlineStr"/>
-      <c r="G2598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2599">
-      <c r="A2599" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2599" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C2599" t="inlineStr"/>
-      <c r="D2599" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2599" t="inlineStr"/>
-      <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2600">
-      <c r="A2600" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2600" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C2600" t="inlineStr"/>
-      <c r="D2600" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2600" t="inlineStr"/>
-      <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2601">
-      <c r="A2601" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2601" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C2601" t="inlineStr"/>
-      <c r="D2601" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E2601" t="inlineStr"/>
-      <c r="F2601" t="inlineStr"/>
-      <c r="G2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2602">
-      <c r="A2602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2602" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C2602" t="inlineStr"/>
-      <c r="D2602" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E2602" t="inlineStr"/>
-      <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2603">
-      <c r="A2603" t="inlineStr"/>
-      <c r="B2603" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C2603" t="inlineStr"/>
-      <c r="D2603" t="inlineStr"/>
-      <c r="E2603" t="inlineStr"/>
-      <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2604">
-      <c r="A2604" t="inlineStr">
-        <is>
-          <t>Thursday June 19 2025</t>
-        </is>
-      </c>
-      <c r="B2604" t="inlineStr"/>
-      <c r="C2604" t="inlineStr"/>
-      <c r="D2604" t="inlineStr"/>
-      <c r="E2604" t="inlineStr"/>
-      <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr"/>
-    </row>
-    <row r="2605">
-      <c r="A2605" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2605" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C2605" t="inlineStr"/>
-      <c r="D2605" t="inlineStr"/>
-      <c r="E2605" t="inlineStr"/>
-      <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2606">
-      <c r="A2606" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2606" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsAPR</t>
-        </is>
-      </c>
-      <c r="C2606" t="inlineStr"/>
-      <c r="D2606" t="inlineStr">
-        <is>
-          <t>$161.8B</t>
-        </is>
-      </c>
-      <c r="E2606" t="inlineStr"/>
-      <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2607">
-      <c r="A2607" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2607" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentAPR</t>
-        </is>
-      </c>
-      <c r="C2607" t="inlineStr"/>
-      <c r="D2607" t="inlineStr">
-        <is>
-          <t>$123.3B</t>
-        </is>
-      </c>
-      <c r="E2607" t="inlineStr"/>
-      <c r="F2607" t="inlineStr"/>
-      <c r="G2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2608">
-      <c r="A2608" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2608" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsAPR</t>
-        </is>
-      </c>
-      <c r="C2608" t="inlineStr"/>
-      <c r="D2608" t="inlineStr">
-        <is>
-          <t>$254.3B</t>
-        </is>
-      </c>
-      <c r="E2608" t="inlineStr"/>
-      <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2609">
-      <c r="A2609" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2609" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C2609" t="inlineStr"/>
-      <c r="D2609" t="inlineStr"/>
-      <c r="E2609" t="inlineStr"/>
-      <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2610">
-      <c r="A2610" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2610" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2610" t="inlineStr"/>
-      <c r="D2610" t="inlineStr"/>
-      <c r="E2610" t="inlineStr"/>
-      <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2611">
-      <c r="A2611" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2611" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/14</t>
-        </is>
-      </c>
-      <c r="C2611" t="inlineStr"/>
-      <c r="D2611" t="inlineStr"/>
-      <c r="E2611" t="inlineStr"/>
-      <c r="F2611" t="inlineStr"/>
-      <c r="G2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2612">
-      <c r="A2612" t="inlineStr">
-        <is>
-          <t>Friday June 20 2025</t>
-        </is>
-      </c>
-      <c r="B2612" t="inlineStr"/>
-      <c r="C2612" t="inlineStr"/>
-      <c r="D2612" t="inlineStr"/>
-      <c r="E2612" t="inlineStr"/>
-      <c r="F2612" t="inlineStr"/>
-      <c r="G2612" t="inlineStr"/>
-    </row>
-    <row r="2613">
-      <c r="A2613" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2613" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/18</t>
-        </is>
-      </c>
-      <c r="C2613" t="inlineStr"/>
-      <c r="D2613" t="inlineStr"/>
-      <c r="E2613" t="inlineStr"/>
-      <c r="F2613" t="inlineStr"/>
-      <c r="G2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2614">
-      <c r="A2614" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2614" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2614" t="inlineStr"/>
-      <c r="D2614" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E2614" t="inlineStr"/>
-      <c r="F2614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2615">
-      <c r="A2615" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2615" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUN</t>
-        </is>
-      </c>
-      <c r="C2615" t="inlineStr"/>
-      <c r="D2615" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="E2615" t="inlineStr"/>
-      <c r="F2615" t="inlineStr"/>
-      <c r="G2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2616">
-      <c r="A2616" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2616" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2616" t="inlineStr"/>
-      <c r="D2616" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="E2616" t="inlineStr"/>
-      <c r="F2616" t="inlineStr"/>
-      <c r="G2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2617">
-      <c r="A2617" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2617" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUN</t>
-        </is>
-      </c>
-      <c r="C2617" t="inlineStr"/>
-      <c r="D2617" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="E2617" t="inlineStr"/>
-      <c r="F2617" t="inlineStr"/>
-      <c r="G2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2618">
-      <c r="A2618" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2618" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUN</t>
-        </is>
-      </c>
-      <c r="C2618" t="inlineStr"/>
-      <c r="D2618" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E2618" t="inlineStr"/>
-      <c r="F2618" t="inlineStr"/>
-      <c r="G2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2619">
-      <c r="A2619" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2619" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUN</t>
-        </is>
-      </c>
-      <c r="C2619" t="inlineStr"/>
-      <c r="D2619" t="inlineStr">
-        <is>
-          <t>59.80</t>
-        </is>
-      </c>
-      <c r="E2619" t="inlineStr"/>
-      <c r="F2619" t="inlineStr"/>
-      <c r="G2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2620">
-      <c r="A2620" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2620" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2620" t="inlineStr"/>
-      <c r="D2620" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E2620" t="inlineStr"/>
-      <c r="F2620" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="G2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2621">
-      <c r="A2621" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
-        </is>
-      </c>
-      <c r="C2621" t="inlineStr"/>
-      <c r="D2621" t="inlineStr"/>
-      <c r="E2621" t="inlineStr"/>
-      <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2622">
-      <c r="A2622" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
-        </is>
-      </c>
-      <c r="C2622" t="inlineStr"/>
-      <c r="D2622" t="inlineStr"/>
-      <c r="E2622" t="inlineStr"/>
-      <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr">
         <is>
           <t>3</t>
         </is>
